--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68558C-A2ED-45CE-9670-AD71AF82FCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149656D-AD2C-4C68-A060-D499BD986B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2055" windowWidth="17235" windowHeight="11385" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
@@ -25,9 +25,789 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
   <si>
     <t>Test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a great variety of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a balanced diet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a couple of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a pair of glasses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a period of time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end of class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a series of </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a serious person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a short pen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic English</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic teaching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accommdation </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommdation form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>panic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adult </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahead of time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a l</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>airpot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>air shot bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>airconditioner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a musi pl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>afford to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applied science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>art gar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>art museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">art </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maths</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">assessment </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at least</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area for improvement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>women</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bachelor degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankcan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar chat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barren lind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barren mind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic rules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedshit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedlemon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black skirt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>back tea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black trousers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue sweater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boarding school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book inadvanced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">book </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>born</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bowling </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>va</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a sharp turn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic problems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic teaching staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation expense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>added panic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult students</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced English Studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agratian reform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim of lecture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aims</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>air pollution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>air pump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>air shuttle bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alternative energies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amusement park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>an educational film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyse data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient temple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual membership free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer questions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibiotics and acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearances</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple juice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applied mathematics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture style</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid touching rocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm badge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive at one's destination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>art gallery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>articles from journal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artistic approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asian studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessment methods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessment of patients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant professor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>associate with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assume the responsibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atmospheric pollution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atmospheric warming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia dollars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>average ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bricks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad eyesight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baked Earth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banch transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banking center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbecue set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barren land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barren mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic rule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be allergic to sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be out of temper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed sheet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed linen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be prone to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>belts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>biological clock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black raincoat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black velvet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloom of flowers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book in advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book reservation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowling alley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>botanical graden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,27 +1194,866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="2"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149656D-AD2C-4C68-A060-D499BD986B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5B9D8-087E-4BBA-BC6D-8E1551175C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2055" windowWidth="17235" windowHeight="11385" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="285" yWindow="3030" windowWidth="17235" windowHeight="11385" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="670">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -808,6 +808,1902 @@
   </si>
   <si>
     <t>Test 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blutton board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>break taking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletin board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breath-taking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breed fish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>British Council</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>British Library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>British Museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>broaden one's horizon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>broaden one's view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brother-in-law</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus routes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business culture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business ethics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business faculty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabin keys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable car</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circulation desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>call slip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus crime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot meet the deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car rental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car tires</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card catalog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carving wood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choices for facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cassette recorders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-ROM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual clothes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual wear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cater to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>catering facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>catering staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>center hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>center manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>central heating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Avenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central Station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate of childcare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charitable organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charity hospital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checklist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest infection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemistry lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Church Road</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheque book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheque card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentrate on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circus performance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Children's Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheese production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city's expansion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city council</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city overhead view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commuters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class representative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquerors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear argument</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classmates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coarse texture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comfortable clothes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleagues</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock watch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed shelves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-book exam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed reserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed-circuit TV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee break</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection tank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>college close-up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common sense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication strategies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference reports</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compant actions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer programmer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer sound card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connecting flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classical music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact lenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperating research elements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>copiing with stress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost effective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost of living</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cough mixture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>country music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course and materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover the cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>craft goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime awareness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross passage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultural differences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custome service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut and polished</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark clothes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark trousers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date-line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data analysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date of birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date of expiry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date slip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day pupil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day shift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decades</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decayed teeth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration balloons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver a speech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery desk </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department building</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desire to learn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk lamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detective film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital camera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>different levels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distant deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divorce rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinguishing feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution of population</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>downward trend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do training courses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doctor's degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic factors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic violence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>door key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>door-to-door service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drugs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double grill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drama threater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drama Festival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drama teacher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw a conclusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress rehearsal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disputes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drinking mathine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drinks and snacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink less coffee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver's license</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driving license</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>directors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop-off site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop-off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EI Nino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eagle Road</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eastern beach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat harmful insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economic history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education exhibition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education officer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education standard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronic director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric fan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronic dictionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email attachment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency contact person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency telephone number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion and mood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end of term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endangered species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineering room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engrave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrollment fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment agency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental issues</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmentally-friendly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evening News</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening appointment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise one's muscles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition of instruments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimental for construction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimental facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive writing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange drafts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra workload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethical film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye doctor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay plan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinct species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face-to-face interview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family medical history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>familiar with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family abuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>family relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancy dress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancy ball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancy dress party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>falcons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farewell party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farming products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear of unemployment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel one's pulse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>female corpse study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>field method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>field system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>field trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>field work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>film festival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fim studio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial advice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial affairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial budget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial executive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial goals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial problems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial shortage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine arts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiine texture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire alarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire blanket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire drill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first floor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-aid kit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-year student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish cakes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish tank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flexible working time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers' taste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flying craft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flying speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food and oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food chain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>football club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>football match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestry industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formal clothes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>four nights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortnight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourth-year student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>free for heating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>free of charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>free transportation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit juice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit trees</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>functions and places</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>full-time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>full name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur trade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>further education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garden Hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden tools</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>generation of electricity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general election</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general English</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general English practice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general ideas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geography trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geographic location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geographical value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give sb. a sack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>given name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give a prescription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">give a speech </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give confirmation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get feedbacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guided tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to hospital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global listening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global warming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold medal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Street</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golf Club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good eyesight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good steering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodbye party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>government policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>government-funded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grasp key words</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation announcements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain pattern of timber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain pattern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>great favourites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground floor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>green waste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>greyhound bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group discussion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gym membership</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>half human</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>half term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard-hoofed animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall of residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>halls of residence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand pump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hands broken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>have access to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>harmful insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>harmful to humans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>have strong hearts and lungs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>have an operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>have high rank in geography</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>have strong financial muscles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>help desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health care</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart beats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat indicator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse hair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse riding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>herb tea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>herd of castle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>host family</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>highly-trained staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>higher education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-rise building</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high quality camera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>honeymoon suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>historical museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>history of school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>historical maos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horror film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot dog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot meal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hothouse effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel crime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunt for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing agency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human beings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human consumption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human race</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human resources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice curing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice pack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice skating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegal profits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in visible view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in chemistry lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in circles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in circulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incoming calls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independence Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrial material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information sector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inland region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial migration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>injection of vaccine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>institutes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects haunting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>institutions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction of handbook</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1194,16 +3090,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
   </cols>
@@ -2052,8 +3948,2376 @@
         <v>195</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B226" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B235" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B236" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B310" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B318" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B319" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B320" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B327" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B329" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B331" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B333" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B334" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B335" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B336" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B337" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B338" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B339" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B340" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B341" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B342" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B343" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B344" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B347" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B348" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B349" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B350" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B351" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B352" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B357" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B359" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B361" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B363" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B365" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B367" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B369" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B370" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B371" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B372" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B373" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B374" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B375" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B376" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B377" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B378" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B379" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B380" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B381" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B382" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B383" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B384" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B385" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B386" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B387" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B388" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B389" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B390" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B391" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B392" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B393" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B394" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B397" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B398" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B399" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B400" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B401" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B402" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B403" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B404" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B405" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B406" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B407" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B408" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B409" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B410" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B411" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B412" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B413" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B414" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B415" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B416" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B417" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B418" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B419" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B420" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B421" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B422" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B423" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B424" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B425" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B426" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B427" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B428" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B429" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B430" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B431" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B432" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B433" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B434" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B435" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B436" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B437" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B438" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B439" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B440" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B441" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B442" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B443" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B444" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B445" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B446" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B447" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B448" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B449" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B450" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B451" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B452" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B455" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B456" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B457" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B458" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B459" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B460" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B461" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B462" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B463" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B464" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B465" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B466" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B467" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B468" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B469" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B470" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B471" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B472" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B473" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B474" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B475" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B476" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B477" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B478" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B479" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B480" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B481" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B482" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B483" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B484" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B485" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B486" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B487" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B488" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B489" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B490" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B491" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B492" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B493" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B494" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B495" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B496" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B497" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B498" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B499" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B500" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B501" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B502" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B503" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B504" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B505" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B506" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B507" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B508" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B509" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B510" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B511" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B512" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B513" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B514" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B515" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B516" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B517" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B518" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B519" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B520" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B521" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B522" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B523" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B524" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B525" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B526" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B527" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B528" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B529" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B530" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B531" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B532" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B533" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B534" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B535" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B536" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B537" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B538" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B539" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B540" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B541" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B542" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B543" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B544" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B545" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B546" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B547" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B548" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B549" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B550" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B551" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B552" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B553" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B554" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B557" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B558" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B559" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B560" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B561" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B562" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B563" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B564" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B565" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B566" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B567" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B568" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B569" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B570" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B571" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B572" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B573" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B574" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B575" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B576" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B577" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B578" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B579" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B580" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B581" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B582" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B583" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B584" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B585" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B586" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B587" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B588" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B589" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B590" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B591" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B592" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B593" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B594" s="1" t="s">
+        <v>669</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5B9D8-087E-4BBA-BC6D-8E1551175C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2624A40D-7897-4D40-8CBB-E9D9073D4746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="3030" windowWidth="17235" windowHeight="11385" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1420">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2704,6 +2704,3006 @@
   </si>
   <si>
     <t>instruction of handbook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant coffee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpersonal skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance companies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interlibrary service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal clock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international evening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international student card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet café</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigators</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigable land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolated spot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job interview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaws</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint membership</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump the queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump the line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>killer whales</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kungfu film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kelp forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key to reception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick sb. out of work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>king-sized bed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen utensils</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>King's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>listening tapescripts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack confident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack of confidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large slide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-scale housing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture hail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser printing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last but not least</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawyers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout of resume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning strategies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning styles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure wear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level of maturity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter of recommendation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>library card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>library resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>life science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>life cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>life expectancy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>life insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>literary film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list of headings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list of objectives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>living cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>living expensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local walking club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local pet shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local resident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local tributes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookout points</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock all windows</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-term loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss of soil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose temper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loud speaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>love story</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low nutrition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low frequency noise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magazine and journals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magical animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>machines and robots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>martial art</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maid servant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailing list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>major in nursing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main entrance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main kitchen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make an appointment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make plans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map of cave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage time better</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manmade dam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market economy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing technoques</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing seminar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing strategies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mind map </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master's degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat and cheese</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathematic formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mature students</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership consultant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership of a club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>microwave oven</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-autumn festival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-morning snacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-semester</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>migration patterns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>military museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mill the grain on the ground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">millions of </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum qualification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mining industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern Languages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern management hotel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern sports facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money diary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money lender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopoly of education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosquito net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother-in-law</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie poster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement of muscle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>music equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>music instrument</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name badge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>native animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural medicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural fibre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new technologies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>night shift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no allergy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no nuts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-medicine items</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-stop flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nit check identities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not for circulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of exposure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of occupants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursing care</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nursing Diploma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupational factors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nrusery school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligatory course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-sufficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>off campus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>office assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overfill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil explosion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>olive oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OHPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on campus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on foot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on small scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-way ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>online shopping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open examination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oral defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange juice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary farmers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic farming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic fiber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriental studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>original reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out circulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of temper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out on loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside activity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall aim of the health club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall trend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdue and pay a fine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overhead projector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overhead view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitch-hike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>packages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>package tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>packing list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding pool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pal group relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palaces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palm tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper jam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent's meeting's aim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parental teaching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part-time job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part-time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party wears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport photos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay for loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permit required</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal alarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal trainer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopies of notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopies of articles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopy of article</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopy office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical surroundings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical therapy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pine tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink slip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>placement test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planet science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planet Society</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planning meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic bags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point of view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planting garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polish cars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population explosion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population of crocodiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>possible causes of stress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postal survey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precautions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precious stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>President's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous insurance company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>printed card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>printed catalogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize giving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project background</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project outline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological patients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public transport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public awareness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public examination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of teaching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarry tiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>property insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>questiion handling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queen-sized bed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's Park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway rail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway tracks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway worker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random selection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA research assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>range of English level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapid population growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare lions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare fish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reach one's destination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>readers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading habits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading hits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall library books</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive prizes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receation therapy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruiting method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycling material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red kangaroo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red meat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference books</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference stacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresher course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>registered mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular meetings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinforced by wood and steel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>related to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remain steady</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement of jobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>required course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research findings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research methods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research opportunities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research results</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">research source </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resident student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>residential college</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resistance from parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource protection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource sharing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>respect the local environment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review of literature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review promptly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice cultivation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riverside Restaurant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Lane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>robots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock salt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>romance story</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>row house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>round trip ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>round trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>road map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>royal commission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber blanket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rules and regulations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run risks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>running facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>running tunnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role of staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rush hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety helmet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety helmets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety regulations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silent island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandglass clock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>satellite TV station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School od Arts and Sciences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School uniform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>science fiction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>science museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scientific approach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scientific research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea otter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea urchin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea watch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seafood restaurant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat belt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seating capacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>second floor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seconhand textbooks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>second-year student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sedentary lifestyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>selection method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-access lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-defense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-service restaurant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior advisor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense of achievement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense of success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensible exercise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set money aside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared social area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheer the sheep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep and cattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep shearing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping mall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortage of money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>side effects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safari zoo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safari park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar experiments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size of population</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size of sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver cloth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky dome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping pills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping sickness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide presentation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small scar on chine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke alarms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social isolation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social issues</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social matter effects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social matters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social problems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social workers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft drinks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft toys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sore throat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare parts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spare socks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>space shuttle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special audio equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special chemicals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special offers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special party hats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special rules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialist engine design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialized course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialized museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialized sports facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>species in rare animal area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>species of crocodiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spending plans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiral notebook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports articles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinose plants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard of education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starter project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starting point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>states</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steak set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam engine ship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel and wood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff neck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>still water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomach and heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomach muscles training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage space</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storehouse and temples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>story conference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress levels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stressful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>streching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>streching movements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strict control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong scent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student banking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student hostel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student information desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student representative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student support service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student union</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studio apartment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study aids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study circle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study techniques</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>styles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffed nose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffed toys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuff of purse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject access guide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit the document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufficient details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportive atmosphere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>support service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun's position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suntan block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun cream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunmary report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey conducted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey of reading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">survival course </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swimming costume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swimming in waterfall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swimming pool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swimming suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA teaching assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take blood pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take one's temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take regular exercise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take risks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi stand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical vocabulary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical institution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching syllabus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachers and faculty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tape recorder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">telephone survey </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>televison drama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tennis club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terraced house</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrestrial heat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tertiary education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>textbook allowance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the marketing department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the diabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the old</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the poor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Milky Way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme of project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">theoretical background </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoretical framework</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger shark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theory chapters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>theory of application</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapy method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilled land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>third floor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>third-year student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinking pattern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>way of thinking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time measurement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time priority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title of essay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to some degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to some extent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>too much work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomatoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top shelf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top ten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>touching rocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour guide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourism organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist brochures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town Hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toy factory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic jam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic lights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic rules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic safety</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transpotation card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel agency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller's check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatment method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinity College</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tropical diseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twin room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV series</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV char show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>under pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergo processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground car park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground railway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unhealthy diet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union Bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>units of measurement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University Drive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>university facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>university guide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>university resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsocial hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upward trend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>urban area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuum cleaner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuum the stairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vary according to the type,shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vary one's diet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable burger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video recording</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video signal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videotape editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual aids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>violent crimes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volcanic dust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm bath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>voting system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking boots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weight training </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>washable shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>washing machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedding photos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">waste handling </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste disposal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-ray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaving blanket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water heater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water resources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water skiing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome package</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Europe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheelchair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>white meat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wide reading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wide writing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>widen one's horizon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>widen one's view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind tunnels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>window dressing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdraw cash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood should be cut and seasoned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work objective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work place</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work systematically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>World  Expo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wretched boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youth hostel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>your own embassy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow fever</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3090,10 +6090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B595" sqref="B595"/>
+    <sheetView tabSelected="1" topLeftCell="A1336" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1351" sqref="B1351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6319,6 +9319,3756 @@
         <v>669</v>
       </c>
     </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B595" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B596" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B597" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B598" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B599" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B600" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B601" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B602" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B603" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B604" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B605" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B606" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B607" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B608" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B609" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B610" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B611" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B612" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B613" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B614" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B615" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B616" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B617" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B618" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B619" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B620" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B621" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B622" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B623" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B624" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B625" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B626" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B627" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B628" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B629" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B630" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B631" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B632" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B633" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B634" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B635" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B636" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B637" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B638" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B639" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B640" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B641" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B642" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B643" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B644" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B645" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B646" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B647" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B648" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B649" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B650" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B651" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B652" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B653" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B654" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B655" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B656" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B657" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B658" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B659" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B660" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B661" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B662" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B663" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B666" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B667" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B668" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B669" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B670" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B671" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B672" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B673" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B674" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B675" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B676" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B677" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B678" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B679" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B680" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B681" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B682" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B683" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B684" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B685" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B686" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B687" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B688" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B689" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B690" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B691" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B692" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B693" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B694" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B695" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B696" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B697" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B698" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B699" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B700" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B701" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B702" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B703" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B704" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B705" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B706" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B707" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B708" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B709" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B710" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B711" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B712" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B713" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B714" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B715" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B716" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B717" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B718" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B719" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B720" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B721" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B722" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B723" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B724" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B725" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B726" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B727" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B728" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B729" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B730" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B731" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B732" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B733" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B734" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B735" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B736" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B737" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B738" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B739" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B740" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B741" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B742" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B743" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B744" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B745" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B746" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B747" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B748" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B749" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B750" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B751" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B752" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B753" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B754" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B755" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B756" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B757" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B758" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B759" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B760" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B761" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B762" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B763" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B764" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B765" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B766" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B767" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B768" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B769" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B770" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B771" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B772" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B773" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B774" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B775" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B776" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B777" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B778" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B779" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B780" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B781" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B782" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B783" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B784" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B785" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B786" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B787" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B788" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B789" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B790" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B791" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B792" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B795" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B796" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B797" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B798" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B799" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B800" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B801" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B802" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B803" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B804" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B805" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B806" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B807" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B808" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B809" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B810" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B811" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B812" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B813" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B814" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B815" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B816" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B817" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B818" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B819" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B820" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B821" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B822" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B823" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B824" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B825" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B826" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B827" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B828" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B829" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B830" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B831" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B832" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B833" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B834" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B835" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B836" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B837" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B838" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B839" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B840" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B841" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B842" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B843" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B844" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B845" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B846" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B847" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B848" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B849" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B850" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B851" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B852" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B853" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B854" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B855" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B856" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B857" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B858" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B859" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B860" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B861" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B862" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B863" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B864" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B865" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B866" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B867" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B868" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B869" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B870" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B871" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B872" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B873" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B874" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B875" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B876" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B877" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B878" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B879" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B880" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B881" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B882" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B883" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B884" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B885" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B886" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B887" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B888" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B889" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B890" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B891" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B892" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B893" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B894" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B895" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B896" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B897" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B898" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B899" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B900" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B901" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B902" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B903" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B904" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B905" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B906" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B907" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B908" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B909" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B910" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B911" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B912" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B913" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B914" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B915" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B916" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B917" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B918" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B919" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B920" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B921" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B922" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B923" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B924" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B925" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B926" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B927" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B928" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B929" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B930" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B931" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B932" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B933" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B934" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B935" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B938" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B939" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B940" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B941" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B942" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B943" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B944" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B945" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B946" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B947" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="948" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B948" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B949" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B950" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B951" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="952" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B952" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B953" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="954" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B954" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B955" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="956" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B956" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B957" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B958" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B959" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="960" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B960" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B961" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B962" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B963" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B964" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B965" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B966" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B967" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B968" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B969" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B970" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B971" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B972" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B973" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B974" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B975" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B976" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B977" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B978" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B979" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B980" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B981" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B982" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B983" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B984" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B985" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B986" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B987" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B988" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B989" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B990" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B991" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="992" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B992" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="993" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B993" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="994" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B994" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="995" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B995" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="996" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B996" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="997" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B997" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="998" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B998" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="999" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B999" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1000" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1001" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1002" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1003" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1004" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1005" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1006" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1007" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1008" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1009" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1010" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1011" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1012" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1013" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1014" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1015" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1016" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1017" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1018" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1019" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1020" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1021" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1022" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1023" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1024" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1025" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1026" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1027" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1028" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1029" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1030" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1031" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1032" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1033" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1034" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1035" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1036" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1037" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1038" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1039" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1040" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1041" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1042" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1043" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1044" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1045" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1046" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1047" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1048" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1049" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1050" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1051" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1052" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1053" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1054" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1055" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1056" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1057" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1058" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1059" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1060" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1061" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1062" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1063" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1064" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1065" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1066" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1067" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1068" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1069" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1070" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1071" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1072" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1073" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1074" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1075" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1076" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1079" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1080" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1081" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1082" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1083" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1084" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1085" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1086" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1087" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1088" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1089" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1090" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1091" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1092" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1093" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1094" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1095" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1096" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1097" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1098" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1099" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1100" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1101" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1102" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1103" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1104" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1105" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1106" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1107" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1108" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1109" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1110" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1111" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1112" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1113" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1114" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1115" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1116" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1117" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1118" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1119" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1120" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1121" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1122" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1123" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1124" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1125" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1126" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1127" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1128" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1129" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1130" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1131" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1132" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1133" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1134" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1135" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1136" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1137" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1138" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1139" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1140" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1141" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1142" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1143" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1144" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1145" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1146" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1147" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1148" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1149" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1150" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1151" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1152" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1153" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1154" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1155" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1156" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1157" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1158" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1159" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1160" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1161" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1162" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1163" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1164" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1165" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1166" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1167" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1168" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1169" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1170" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1171" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1172" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1173" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1174" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1175" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1176" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1177" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1178" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1179" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1180" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1181" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1182" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1183" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1184" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1185" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1186" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1187" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1188" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1189" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1190" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1191" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1192" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1193" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1194" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1195" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1196" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1197" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1198" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1199" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1200" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1201" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1202" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1203" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1204" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1205" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1206" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1207" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1208" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1209" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1210" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1211" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1212" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1213" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1214" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1215" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1216" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1217" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1218" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1219" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1220" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1223" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1224" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1225" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1226" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1227" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1228" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1229" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1230" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1231" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1232" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1233" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1234" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1235" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1236" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1237" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1238" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1239" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1240" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1241" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1242" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1243" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1244" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1245" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1246" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1247" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1248" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1249" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1250" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1251" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1252" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1253" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1254" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1255" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1256" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1257" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1258" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1259" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1260" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1261" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1262" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1263" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1264" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1265" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1266" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1267" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1268" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1269" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1270" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1271" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1272" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1273" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1274" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1275" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1276" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1277" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1278" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1279" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1280" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1281" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1282" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1283" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1284" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1285" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1286" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1287" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1288" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1289" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1290" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1291" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1292" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1293" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1294" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1295" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1296" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1297" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1298" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1299" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1300" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1301" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1302" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1303" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1304" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1305" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1306" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1307" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1308" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1309" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1310" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1311" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1312" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1313" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1314" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1315" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1316" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1317" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1318" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1319" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1320" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1321" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1322" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1323" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1324" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1325" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1326" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1327" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1328" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1329" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1330" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1331" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1332" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1333" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1334" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1335" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1336" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1337" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1338" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1339" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1340" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1341" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1341" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1342" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1343" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1344" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1345" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1346" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1347" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1348" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1349" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1E627-E19C-42F0-8A54-451A75C64C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DEE6C-FBFB-44B5-B54C-AEE47D8C7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="19815" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="6690" yWindow="60" windowWidth="19815" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8068,7 +8068,7 @@
   <dimension ref="A1:D1348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A439" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C451" sqref="C451"/>
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8815D-EAC6-4741-A9E1-2F92F16BE7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806A8FF-7342-40AC-ABA3-4EE26B07E9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6690" yWindow="0" windowWidth="19815" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="2184">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8725,6 +8725,38 @@
   </si>
   <si>
     <t>mails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailing list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>major in nursing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main entrance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main kitchen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make an appointment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9113,8 +9145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
   <dimension ref="A1:D1348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A674" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C694" sqref="C694"/>
+    <sheetView tabSelected="1" topLeftCell="A689" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D695" sqref="D695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15105,40 +15137,64 @@
       <c r="B694" s="1" t="s">
         <v>763</v>
       </c>
+      <c r="C694" t="s">
+        <v>2176</v>
+      </c>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B695" s="1" t="s">
         <v>764</v>
       </c>
+      <c r="C695" t="s">
+        <v>2177</v>
+      </c>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B696" s="1" t="s">
         <v>765</v>
       </c>
+      <c r="C696" t="s">
+        <v>2178</v>
+      </c>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B697" s="1" t="s">
         <v>766</v>
       </c>
+      <c r="C697" t="s">
+        <v>2179</v>
+      </c>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B698" s="1" t="s">
         <v>767</v>
       </c>
+      <c r="C698" t="s">
+        <v>2180</v>
+      </c>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B699" s="1" t="s">
         <v>768</v>
       </c>
+      <c r="C699" t="s">
+        <v>2181</v>
+      </c>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B700" s="1" t="s">
         <v>769</v>
       </c>
+      <c r="C700" t="s">
+        <v>2182</v>
+      </c>
     </row>
     <row r="701" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B701" s="1" t="s">
         <v>770</v>
+      </c>
+      <c r="C701" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="702" spans="2:4" x14ac:dyDescent="0.2">

--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806A8FF-7342-40AC-ABA3-4EE26B07E9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DB695-0538-4FD9-8BF6-175A9FF17794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="0" windowWidth="19815" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="3060" yWindow="0" windowWidth="24300" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="2184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="2280">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8757,6 +8757,390 @@
   </si>
   <si>
     <t>make an appointment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make plans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map of carve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage time better</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manmade dam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market economy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing techniques</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing seminar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing strategies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mind map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master's degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat and cheese</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathematic formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mature students</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">medical science </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership consultant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership of a club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>microwave oven</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-autumn festival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-morning snacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-semester</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>migration pattern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>migration patterns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>milage ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miltary museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mill the grain on the ground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">millions of </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum qualification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mining industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern Languages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern management hotel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern sports facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money diary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money lender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopoly education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosquito net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mother-in-law</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie poster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement of muscle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>music equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>music instrument</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name badge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>native animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>native animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural medicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural museum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural fiber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new technologies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>night shift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no allergy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no nuts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-medicine items</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-stop flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not check identities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not for circulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of exposure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of occupants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursing care</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nursing Diploma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupational factors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursery school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligatory course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-sufficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>off campus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>office assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overfill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil explosion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>olive oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OHPEN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9143,10 +9527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D1348"/>
+  <dimension ref="A1:D1351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A689" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D695" sqref="D695"/>
+    <sheetView tabSelected="1" topLeftCell="A775" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C795" sqref="C795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15201,3214 +15585,3508 @@
       <c r="B702" s="1" t="s">
         <v>771</v>
       </c>
+      <c r="C702" t="s">
+        <v>2184</v>
+      </c>
     </row>
     <row r="703" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B703" s="1" t="s">
         <v>772</v>
       </c>
+      <c r="C703" t="s">
+        <v>2185</v>
+      </c>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B704" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C704" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="705" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B705" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C705" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="706" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B706" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C706" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="707" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B707" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C707" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="708" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B708" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C708" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="709" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B709" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C709" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="710" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B710" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C710" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="711" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B711" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C711" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="712" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B712" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C712" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="713" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B713" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C713" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="714" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B714" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C714" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="715" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B715" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C715" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="716" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B716" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C716" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="717" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B717" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C717" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="718" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B718" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C718" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="719" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B719" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C719" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="720" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B720" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C720" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="721" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B721" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C721" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="722" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B722" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C722" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="723" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B723" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B724" s="1" t="s">
+      <c r="C723" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="724" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C724" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="725" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C725" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="726" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C726" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="727" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B727" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B725" s="1" t="s">
+      <c r="C727" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="728" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B728" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B726" s="1" t="s">
+      <c r="C728" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="729" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B729" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B727" s="1" t="s">
+      <c r="C729" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="730" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B730" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B728" s="1" t="s">
+      <c r="C730" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="731" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B731" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B729" s="1" t="s">
+      <c r="C731" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="732" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B732" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B730" s="1" t="s">
+      <c r="C732" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="733" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B733" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B731" s="1" t="s">
+      <c r="C733" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="734" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B734" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B732" s="1" t="s">
+      <c r="C734" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="735" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B735" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B733" s="1" t="s">
+      <c r="C735" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="736" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B736" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B734" s="1" t="s">
+      <c r="C736" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="737" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B737" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B735" s="1" t="s">
+      <c r="C737" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="738" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B738" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B736" s="1" t="s">
+      <c r="C738" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="739" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B739" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B737" s="1" t="s">
+      <c r="C739" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="740" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B740" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B738" s="1" t="s">
+      <c r="C740" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="741" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B741" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B739" s="1" t="s">
+      <c r="C741" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B742" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B740" s="1" t="s">
+      <c r="C742" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="743" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B743" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B741" s="1" t="s">
+      <c r="C743" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="744" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B744" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B742" s="1" t="s">
+      <c r="C744" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="745" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B745" s="1" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B743" s="1" t="s">
+      <c r="C745" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="746" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B746" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B744" s="1" t="s">
+      <c r="C746" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="747" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B747" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B745" s="1" t="s">
+      <c r="C747" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="748" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B748" s="1" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B746" s="1" t="s">
+      <c r="C748" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="749" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B749" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B747" s="1" t="s">
+      <c r="C749" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="750" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B750" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B748" s="1" t="s">
+      <c r="C750" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="751" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B751" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B749" s="1" t="s">
+      <c r="C751" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="752" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B752" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B750" s="1" t="s">
+      <c r="C752" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B753" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B751" s="1" t="s">
+      <c r="C753" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B754" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B752" s="1" t="s">
+      <c r="C754" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="755" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B755" s="1" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B753" s="1" t="s">
+      <c r="C755" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B756" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B754" s="1" t="s">
+      <c r="C756" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="757" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B757" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B755" s="1" t="s">
+      <c r="C757" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="758" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B758" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B756" s="1" t="s">
+      <c r="C758" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="759" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B759" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B757" s="1" t="s">
+      <c r="C759" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="760" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B760" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B758" s="1" t="s">
+      <c r="C760" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B761" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B759" s="1" t="s">
+      <c r="C761" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B762" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B760" s="1" t="s">
+      <c r="C762" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B763" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B761" s="1" t="s">
+      <c r="C763" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="764" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B764" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B762" s="1" t="s">
+      <c r="C764" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="765" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B765" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B763" s="1" t="s">
+      <c r="C765" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="766" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B766" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B764" s="1" t="s">
+      <c r="C766" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="767" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B767" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B765" s="1" t="s">
+      <c r="C767" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="768" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B768" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B766" s="1" t="s">
+      <c r="C768" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="769" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B769" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B767" s="1" t="s">
+      <c r="C769" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="770" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B770" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B768" s="1" t="s">
+      <c r="C770" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="771" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B771" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B769" s="1" t="s">
+      <c r="C771" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="772" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B772" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B770" s="1" t="s">
+      <c r="C772" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="773" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B773" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B771" s="1" t="s">
+      <c r="C773" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="774" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B774" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B772" s="1" t="s">
+      <c r="C774" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="775" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B775" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B773" s="1" t="s">
+      <c r="C775" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="776" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B776" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B774" s="1" t="s">
+      <c r="C776" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="777" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B777" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B775" s="1" t="s">
+      <c r="C777" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="778" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B778" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B776" s="1" t="s">
+      <c r="C778" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="779" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B779" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B777" s="1" t="s">
+      <c r="C779" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="780" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B780" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B778" s="1" t="s">
+      <c r="C780" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="781" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B781" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B779" s="1" t="s">
+      <c r="C781" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="782" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B782" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B780" s="1" t="s">
+      <c r="C782" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="783" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B783" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B781" s="1" t="s">
+      <c r="C783" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="784" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B784" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B782" s="1" t="s">
+      <c r="C784" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B785" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B783" s="1" t="s">
+      <c r="C785" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B786" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B784" s="1" t="s">
+      <c r="C786" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B787" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B785" s="1" t="s">
+      <c r="C787" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B788" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B786" s="1" t="s">
+      <c r="C788" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B789" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B787" s="1" t="s">
+      <c r="C789" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B790" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B788" s="1" t="s">
+      <c r="C790" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B791" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B789" s="1" t="s">
+      <c r="C791" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B792" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B790" s="1" t="s">
+      <c r="C792" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B793" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B791" s="1" t="s">
+      <c r="C793" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B794" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A793" t="s">
+      <c r="C794" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B794" s="1" t="s">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B797" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B795" s="1" t="s">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B798" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B796" s="1" t="s">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B799" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B797" s="1" t="s">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B800" s="1" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B798" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B799" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B800" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B801" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B802" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B803" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B804" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B805" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B806" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B807" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B808" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B809" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B810" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B811" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B812" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B813" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B814" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B815" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B816" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B817" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B818" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B819" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B820" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B821" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B822" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B823" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B824" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B825" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B826" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B827" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B828" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B829" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B830" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B831" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B832" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B833" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B834" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B835" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B836" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B837" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B838" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B839" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B840" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B841" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B842" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B843" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B844" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B845" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B846" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B847" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B848" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B849" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B850" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B851" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B852" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B853" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B854" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B855" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B856" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B857" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B858" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B859" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B860" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B861" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B862" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B863" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B864" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B865" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B866" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B867" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B868" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B869" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B870" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B871" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B872" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B873" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B874" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B875" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B876" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B877" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B878" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B879" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B880" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B881" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B882" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B883" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B884" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B885" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B886" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B887" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B888" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B889" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B890" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B891" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B892" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B893" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B894" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B895" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B896" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B897" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B898" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B899" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B900" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B901" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B902" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B903" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B904" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B905" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B906" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B907" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B908" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B909" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B910" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B911" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B912" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B913" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B914" s="1" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B915" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B916" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B917" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B918" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B919" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B920" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B921" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="922" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B922" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="923" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B923" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B924" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="925" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B925" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="926" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B926" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="927" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B927" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="928" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B928" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B929" s="1" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B930" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B931" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B932" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B933" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B934" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B935" s="1" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A936" t="s">
-        <v>1003</v>
+      <c r="B936" s="1" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B937" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B938" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B939" s="1" t="s">
-        <v>1006</v>
+      <c r="A939" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B940" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B941" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B942" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B943" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B944" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B945" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B946" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B947" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B948" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B949" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B950" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B951" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B952" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B953" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B954" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B955" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B956" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B957" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B958" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B959" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B960" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B961" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B962" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B963" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B964" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B965" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B966" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B967" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="968" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B968" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="969" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B969" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="970" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B970" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="971" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B971" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="972" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B972" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="973" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B973" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="974" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B974" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="975" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B975" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="976" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B976" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="977" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B977" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="978" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B978" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="979" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B979" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="980" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B980" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="981" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B981" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="982" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B982" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="983" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B983" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="984" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B984" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="985" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B985" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="986" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B986" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="987" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B987" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="988" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B988" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="989" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B989" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="990" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B990" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="991" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B991" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="992" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B992" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="993" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B993" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="994" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B994" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="995" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B995" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="996" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B996" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="997" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B997" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="998" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B998" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="999" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B999" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1000" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1001" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1002" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1003" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1004" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1005" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1006" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1007" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1008" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1009" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1010" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1011" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1012" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1013" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1014" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1015" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1016" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1017" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1018" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1019" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1020" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1021" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1022" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1023" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1024" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1025" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1026" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1027" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1028" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1029" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1030" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1031" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1032" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1033" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1034" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1035" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1036" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1037" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1038" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1039" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1040" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1041" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1041" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1042" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1042" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1043" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1044" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1045" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1045" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1046" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1046" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1047" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1047" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1048" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1049" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1049" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1050" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1050" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1051" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1051" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1052" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1052" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1053" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1053" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1054" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1054" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1055" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1055" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1056" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1056" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1057" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1057" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1058" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1058" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1059" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1060" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1061" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1061" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1062" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1062" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1063" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1063" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1064" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1064" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1065" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1065" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1066" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1066" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1067" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1067" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1068" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1068" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1069" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1069" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1070" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1070" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1071" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1071" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1072" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1072" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1073" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1074" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1076" s="1" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1077" t="s">
-        <v>1143</v>
+      <c r="B1077" s="1" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1079" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1080" s="1" t="s">
-        <v>1146</v>
+      <c r="A1080" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1081" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1082" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1083" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1084" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1085" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1086" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1087" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1088" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1089" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1089" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1090" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1090" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1091" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1091" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1092" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1092" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1093" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1093" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1094" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1094" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1095" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1095" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1096" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1096" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1097" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1097" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1098" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1099" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1100" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1101" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1102" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1103" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1104" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1105" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1106" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1107" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1108" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1109" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1110" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1111" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1112" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1113" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1114" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1115" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1116" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1117" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1118" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1119" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1120" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1121" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1122" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1123" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1124" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1125" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1126" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1127" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1128" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1129" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1130" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1131" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1132" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1133" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1134" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1135" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1136" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1137" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1138" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1139" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1140" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1141" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1142" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1143" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1144" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1145" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1146" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1147" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1148" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1149" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1150" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1151" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1152" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1153" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1154" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1155" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1156" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1157" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1158" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1159" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1160" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1161" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1162" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1163" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1164" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1165" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1166" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1167" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1168" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1169" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1170" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1171" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1172" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1173" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1174" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1175" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1176" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1177" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1178" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1179" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1180" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1181" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1182" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1183" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1184" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1185" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1186" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1187" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1188" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1189" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1190" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1191" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1192" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1193" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1194" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1195" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1196" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1197" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1198" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1199" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1200" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1201" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1202" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1203" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1204" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1205" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1206" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1207" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1208" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1209" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1210" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1211" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1212" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1213" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1214" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1215" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1216" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1217" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1219" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1220" s="1" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1221" t="s">
-        <v>1286</v>
+      <c r="B1221" s="1" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1222" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1223" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1224" s="1" t="s">
-        <v>1289</v>
+      <c r="A1224" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1225" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1227" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1228" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1229" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1230" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1231" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1232" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1233" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1234" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1235" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1236" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1237" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1238" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1239" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1240" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1241" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1242" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1243" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1244" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1245" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1246" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1247" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1248" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1249" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1250" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1251" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1252" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1253" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1254" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1255" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1256" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1257" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1258" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1259" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1260" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1261" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1262" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1263" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1264" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1265" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1266" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1267" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1268" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1269" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1270" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1271" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1272" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1273" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1274" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1275" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1276" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1277" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1278" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1279" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1280" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1281" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1282" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1283" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1284" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1285" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1286" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1287" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1289" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1290" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1291" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1292" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1293" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1294" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1295" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1296" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1297" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1298" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1299" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1300" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1301" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1302" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1303" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1304" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1305" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1306" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1307" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1308" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1309" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1310" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1311" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1312" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1313" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1314" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1315" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1316" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1317" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1318" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1319" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1320" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1321" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1322" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1323" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1324" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1325" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1326" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1326" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1327" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1328" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1329" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1330" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1331" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1331" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1332" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1333" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1334" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1335" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1336" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1337" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1338" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1339" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1340" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1341" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1342" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1343" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1344" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1345" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1346" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1347" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1348" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1349" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1350" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1351" s="1" t="s">
         <v>1413</v>
       </c>
     </row>

--- a/WangLu-C5.xlsx
+++ b/WangLu-C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DB695-0538-4FD9-8BF6-175A9FF17794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF975BC-F9ED-4942-B7BD-085E214E14BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="0" windowWidth="24300" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="2430" yWindow="0" windowWidth="24300" windowHeight="15600" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="2435">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -9141,6 +9141,626 @@
   </si>
   <si>
     <t>OHPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on campus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on foot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on small scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-way ticket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>online shopping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open admission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open shelves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open-book exam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optic examination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional expenses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oral defense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oral defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange juice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary farmers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic farming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic fiber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic food</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oriental studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oriental studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>original reasons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>original reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out circulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of temper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out on loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside activity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall aim of the health club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall trend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdue and pay a fine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overhead projector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overhead view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitch hike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitchhike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>packages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>package tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>packing list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pacific ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding pool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pal group relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palaces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palm tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper jam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent's meeting's aim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parental teaching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part-time job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part-time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party wear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party wears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport photo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport photos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay for loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permit required</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal alarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>person trainer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone bills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopies of notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopies of articles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopy of article</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photocopy office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical surroundings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical therapy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pine tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink slip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>placement test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planet science</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planet society</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planet Society</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planning meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planting garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic bags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point of view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polish cars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population explosion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population of crocodiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>possible causes of stress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postal survey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precautions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precious stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>President's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous insurance company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous studies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>printed card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>printed catalogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize giving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional learning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project background</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project outline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological patients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychological course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public transport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public awareness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public examination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public facilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of teaching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality of personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qurry qu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarry tiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>property insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>question handling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queen-sized bed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen's park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway rail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway tracks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway worker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random selection</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9527,10 +10147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D1351"/>
+  <dimension ref="A1:D1354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C795" sqref="C795"/>
+    <sheetView tabSelected="1" topLeftCell="A926" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C941" sqref="C941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16334,2759 +16954,3230 @@
       <c r="B797" s="1" t="s">
         <v>862</v>
       </c>
+      <c r="C797" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B798" s="1" t="s">
         <v>863</v>
       </c>
+      <c r="C798" t="s">
+        <v>2281</v>
+      </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B799" s="1" t="s">
         <v>864</v>
       </c>
+      <c r="C799" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B800" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C800" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="801" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B801" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C801" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="802" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B802" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C802" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="803" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B803" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B804" s="1" t="s">
+      <c r="C803" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="804" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C804" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="805" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C805" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="806" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C806" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="807" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B807" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B805" s="1" t="s">
+      <c r="C807" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="808" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B808" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B806" s="1" t="s">
+      <c r="C808" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="809" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B809" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B807" s="1" t="s">
+      <c r="C809" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="810" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B810" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B808" s="1" t="s">
+      <c r="C810" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="811" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B811" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B809" s="1" t="s">
+      <c r="C811" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="812" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B812" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B810" s="1" t="s">
+      <c r="C812" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="813" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B813" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B811" s="1" t="s">
+      <c r="C813" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="814" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B814" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B812" s="1" t="s">
+      <c r="C814" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="815" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B815" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B813" s="1" t="s">
+      <c r="C815" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="816" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B816" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B814" s="1" t="s">
+      <c r="C816" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="817" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B817" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B815" s="1" t="s">
+      <c r="C817" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="818" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B818" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B816" s="1" t="s">
+      <c r="C818" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="819" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B819" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B817" s="1" t="s">
+      <c r="C819" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="820" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B820" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B818" s="1" t="s">
+      <c r="C820" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="821" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B821" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B819" s="1" t="s">
+      <c r="C821" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="822" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B822" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B820" s="1" t="s">
+      <c r="C822" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="823" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B823" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B821" s="1" t="s">
+      <c r="C823" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="824" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B824" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B822" s="1" t="s">
+      <c r="C824" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="825" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B825" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B823" s="1" t="s">
+      <c r="C825" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="826" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B826" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B824" s="1" t="s">
+      <c r="C826" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="827" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B827" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B825" s="1" t="s">
+      <c r="C827" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="828" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B828" s="1" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B826" s="1" t="s">
+      <c r="C828" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="829" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B829" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B827" s="1" t="s">
+      <c r="C829" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="830" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B830" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B828" s="1" t="s">
+      <c r="C830" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="831" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B831" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B829" s="1" t="s">
+      <c r="C831" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="832" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B832" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B830" s="1" t="s">
+      <c r="C832" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="833" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B833" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B831" s="1" t="s">
+      <c r="C833" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="834" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B834" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B832" s="1" t="s">
+      <c r="C834" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="835" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B835" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B833" s="1" t="s">
+      <c r="C835" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="836" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B836" s="1" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B834" s="1" t="s">
+      <c r="C836" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="837" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B837" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B835" s="1" t="s">
+      <c r="C837" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="838" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B838" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B836" s="1" t="s">
+      <c r="C838" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="839" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B839" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B837" s="1" t="s">
+      <c r="C839" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="840" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B840" s="1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B838" s="1" t="s">
+      <c r="C840" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="841" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B841" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B839" s="1" t="s">
+      <c r="C841" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="842" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B842" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B840" s="1" t="s">
+      <c r="C842" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="843" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B843" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B841" s="1" t="s">
+      <c r="C843" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="844" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B844" s="1" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B842" s="1" t="s">
+      <c r="C844" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="845" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B845" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B843" s="1" t="s">
+      <c r="C845" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="846" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B846" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B844" s="1" t="s">
+      <c r="C846" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="847" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B847" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B845" s="1" t="s">
+      <c r="C847" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="848" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B848" s="1" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B846" s="1" t="s">
+      <c r="C848" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="849" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B849" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B847" s="1" t="s">
+      <c r="C849" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="850" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B850" s="1" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B848" s="1" t="s">
+      <c r="C850" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="851" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B851" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B849" s="1" t="s">
+      <c r="C851" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="852" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B852" s="1" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B850" s="1" t="s">
+      <c r="C852" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="853" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B853" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B851" s="1" t="s">
+      <c r="C853" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="854" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B854" s="1" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B852" s="1" t="s">
+      <c r="C854" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="855" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B855" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B853" s="1" t="s">
+      <c r="C855" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="856" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B856" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B854" s="1" t="s">
+      <c r="C856" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="857" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B857" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B855" s="1" t="s">
+      <c r="C857" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="858" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B858" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B856" s="1" t="s">
+      <c r="C858" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="859" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B859" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B857" s="1" t="s">
+      <c r="C859" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="860" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B860" s="1" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B858" s="1" t="s">
+      <c r="C860" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="861" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B861" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B859" s="1" t="s">
+      <c r="C861" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="862" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B862" s="1" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B860" s="1" t="s">
+      <c r="C862" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="863" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B863" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B861" s="1" t="s">
+      <c r="C863" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="864" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B864" s="1" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B862" s="1" t="s">
+      <c r="C864" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="865" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B865" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B863" s="1" t="s">
+      <c r="C865" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="866" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B866" s="1" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B864" s="1" t="s">
+      <c r="C866" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="867" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B867" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B865" s="1" t="s">
+      <c r="C867" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="868" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B868" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B866" s="1" t="s">
+      <c r="C868" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="869" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B869" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B867" s="1" t="s">
+      <c r="C869" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="870" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B870" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B868" s="1" t="s">
+      <c r="C870" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="871" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B871" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B869" s="1" t="s">
+      <c r="C871" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="872" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B872" s="1" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B870" s="1" t="s">
+      <c r="C872" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="873" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B873" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B871" s="1" t="s">
+      <c r="C873" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="874" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B874" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B872" s="1" t="s">
+      <c r="C874" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="875" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B875" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B873" s="1" t="s">
+      <c r="C875" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="876" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B876" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B874" s="1" t="s">
+      <c r="C876" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="877" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B877" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B875" s="1" t="s">
+      <c r="C877" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="878" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B878" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B876" s="1" t="s">
+      <c r="C878" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="879" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B879" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B877" s="1" t="s">
+      <c r="C879" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="880" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B880" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B878" s="1" t="s">
+      <c r="C880" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="881" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B881" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B879" s="1" t="s">
+      <c r="C881" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="882" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B882" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B880" s="1" t="s">
+      <c r="C882" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="883" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B883" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B881" s="1" t="s">
+      <c r="C883" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="884" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B884" s="1" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B882" s="1" t="s">
+      <c r="C884" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="885" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B885" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B883" s="1" t="s">
+      <c r="C885" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="886" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B886" s="1" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B884" s="1" t="s">
+      <c r="C886" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="887" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B887" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B885" s="1" t="s">
+      <c r="C887" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="888" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B888" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B886" s="1" t="s">
+      <c r="C888" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="889" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B889" s="1" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B887" s="1" t="s">
+      <c r="C889" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="890" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B890" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B888" s="1" t="s">
+      <c r="C890" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="891" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B891" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B889" s="1" t="s">
+      <c r="C891" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="892" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B892" s="1" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B890" s="1" t="s">
+      <c r="C892" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="893" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B893" s="1" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B891" s="1" t="s">
+      <c r="C893" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="894" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B894" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B892" s="1" t="s">
+      <c r="C894" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="895" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B895" s="1" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B893" s="1" t="s">
+      <c r="C895" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="896" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B896" s="1" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B894" s="1" t="s">
+      <c r="C896" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="897" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B897" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B895" s="1" t="s">
+      <c r="C897" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="898" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B898" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B896" s="1" t="s">
+      <c r="C898" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="899" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B899" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B897" s="1" t="s">
+      <c r="C899" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="900" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B900" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B898" s="1" t="s">
+      <c r="C900" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="901" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B901" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B899" s="1" t="s">
+      <c r="C901" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="902" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B902" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B900" s="1" t="s">
+      <c r="C902" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="903" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B903" s="1" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B901" s="1" t="s">
+      <c r="C903" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="904" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B904" s="1" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B902" s="1" t="s">
+      <c r="C904" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="905" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B905" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B903" s="1" t="s">
+      <c r="C905" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="906" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B906" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B904" s="1" t="s">
+      <c r="C906" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="907" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B907" s="1" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B905" s="1" t="s">
+      <c r="C907" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="908" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B908" s="1" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B906" s="1" t="s">
+      <c r="C908" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="909" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B909" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B907" s="1" t="s">
+      <c r="C909" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="910" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B910" s="1" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B908" s="1" t="s">
+      <c r="C910" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="911" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B911" s="1" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B909" s="1" t="s">
+      <c r="C911" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="912" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B912" s="1" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B910" s="1" t="s">
+      <c r="C912" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="913" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B913" s="1" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B911" s="1" t="s">
+      <c r="C913" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="914" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B914" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B912" s="1" t="s">
+      <c r="C914" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="915" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B915" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B913" s="1" t="s">
+      <c r="C915" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="916" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B916" s="1" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B914" s="1" t="s">
+      <c r="C916" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="917" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B917" s="1" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B915" s="1" t="s">
+      <c r="C917" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="918" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B918" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B916" s="1" t="s">
+      <c r="C918" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="919" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B919" s="1" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B917" s="1" t="s">
+      <c r="C919" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="920" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B920" s="1" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B918" s="1" t="s">
+      <c r="C920" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="921" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B921" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B919" s="1" t="s">
+      <c r="C921" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="922" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B922" s="1" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B920" s="1" t="s">
+      <c r="C922" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="923" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B923" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B921" s="1" t="s">
+      <c r="C923" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="924" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B924" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B922" s="1" t="s">
+      <c r="C924" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="925" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B925" s="1" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B923" s="1" t="s">
+      <c r="C925" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="926" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B926" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B924" s="1" t="s">
+      <c r="C926" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="927" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B927" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B925" s="1" t="s">
+      <c r="C927" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="928" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B928" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B926" s="1" t="s">
+      <c r="C928" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B929" s="1" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B927" s="1" t="s">
+      <c r="C929" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B930" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B928" s="1" t="s">
+      <c r="C930" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B931" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B929" s="1" t="s">
+      <c r="C931" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B932" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B930" s="1" t="s">
+      <c r="C932" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B933" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B931" s="1" t="s">
+      <c r="C933" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B934" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B932" s="1" t="s">
+      <c r="C934" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B935" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B933" s="1" t="s">
+      <c r="C935" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B936" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B934" s="1" t="s">
+      <c r="C936" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B937" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B935" s="1" t="s">
+      <c r="C937" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B938" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B936" s="1" t="s">
+      <c r="C938" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B939" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B937" s="1" t="s">
+      <c r="C939" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B940" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A939" t="s">
+      <c r="C940" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B940" s="1" t="s">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B943" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B941" s="1" t="s">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B944" s="1" t="s">
         <v>1005</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B942" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B943" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B944" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B945" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B946" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B947" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B948" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B949" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B950" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B951" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B952" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B953" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B954" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B955" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B956" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B957" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B958" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B959" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B960" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B961" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B962" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B963" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B964" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B965" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B966" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B967" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="968" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B968" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="969" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B969" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="970" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B970" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="971" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B971" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="972" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B972" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="973" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B973" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="974" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B974" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="975" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B975" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="976" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B976" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="977" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B977" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="978" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B978" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="979" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B979" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="980" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B980" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="981" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B981" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="982" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B982" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="983" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B983" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="984" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B984" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="985" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B985" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="986" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B986" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="987" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B987" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="988" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B988" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="989" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B989" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="990" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B990" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="991" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B991" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="992" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B992" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="993" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B993" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="994" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B994" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="995" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B995" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="996" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B996" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="997" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B997" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="998" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B998" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="999" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B999" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1000" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1001" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1002" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1003" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1004" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1005" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1006" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1007" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1008" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1009" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1010" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1011" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1012" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1013" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1014" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1015" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1016" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1017" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1018" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1019" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1020" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1021" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1022" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1023" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1024" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1025" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1026" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1027" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1028" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1029" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1030" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1031" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1032" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1033" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1034" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1035" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1036" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1037" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1038" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1039" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1040" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1041" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1041" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1042" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1042" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1043" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1044" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1045" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1045" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1046" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1046" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1047" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1047" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1048" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1048" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1049" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1049" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1050" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1050" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1051" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1051" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1052" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1052" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1053" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1053" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1054" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1054" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1055" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1055" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1056" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1056" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1057" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1057" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1058" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1058" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1059" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1060" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1061" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1061" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1062" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1062" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1063" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1063" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1064" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1064" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1065" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1065" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1066" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1066" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1067" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1067" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1068" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1068" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1069" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1069" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1070" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1070" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1071" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1071" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1072" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1072" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1073" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1074" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1076" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1077" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1079" s="1" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1080" t="s">
-        <v>1143</v>
+      <c r="B1080" s="1" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1081" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1082" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1083" s="1" t="s">
-        <v>1146</v>
+      <c r="A1083" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1084" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1085" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1086" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1087" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1088" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1089" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1089" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1090" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1090" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1091" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1091" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1092" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1092" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1093" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1093" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1094" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1094" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1095" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1095" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1096" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1096" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1097" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1097" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1098" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1099" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1100" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1101" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1102" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1103" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1104" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1105" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1106" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1107" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1108" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1109" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1110" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1111" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1112" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1113" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1114" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1115" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1116" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1117" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1118" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1119" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1120" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1121" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1122" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1123" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1124" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1125" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1126" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1127" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1128" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1129" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1130" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1131" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1132" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1133" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1134" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1135" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1136" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1137" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1138" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1139" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1140" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1141" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1142" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1143" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1144" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1145" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1146" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1147" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1148" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1149" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1150" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1151" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1152" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1153" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1154" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1155" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1156" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1157" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1158" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1159" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1160" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1161" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1162" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1163" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1164" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1165" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1166" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1167" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1168" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1169" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1170" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1171" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1172" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1173" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1174" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1175" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1176" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1177" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1178" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1179" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1180" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1181" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1182" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1183" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1184" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1185" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1186" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1187" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1188" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1189" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1190" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1191" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1192" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1193" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1194" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1195" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1196" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1197" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1198" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1199" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1200" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1201" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1202" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1203" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1204" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1205" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1206" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1207" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1208" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1209" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1210" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1211" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1212" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1213" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1214" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1215" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1216" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1217" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1219" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1220" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1221" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1222" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1223" s="1" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1224" t="s">
-        <v>1286</v>
+      <c r="B1224" s="1" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1225" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1226" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1227" s="1" t="s">
-        <v>1289</v>
+      <c r="A1227" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1228" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1229" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1230" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1231" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1232" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1233" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1234" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1235" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1236" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1237" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1238" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1239" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1240" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1241" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1242" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1243" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1244" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1245" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1246" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1247" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1248" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1249" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1250" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1251" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1252" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1253" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1254" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1255" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1256" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1257" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1258" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1259" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1260" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1261" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1262" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1263" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1264" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1265" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1266" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1267" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1268" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1269" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1270" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1271" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1272" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1273" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1274" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1275" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1276" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1277" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1278" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1279" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1280" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1281" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1282" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1283" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1284" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1285" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1286" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1287" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1289" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1290" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1291" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1292" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1293" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1294" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1295" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1296" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1297" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1298" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1299" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1300" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1301" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1302" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1303" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1304" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1305" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1306" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1307" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1308" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1309" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1310" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1311" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1312" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1313" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1314" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1315" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1316" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1317" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1318" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1319" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1320" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1321" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1322" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1323" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1324" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1325" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1326" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1326" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1327" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1328" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1329" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1330" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1331" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1331" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1332" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1333" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1334" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1335" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1336" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1337" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1338" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1339" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1340" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1341" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1342" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1343" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1344" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1345" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1346" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1347" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1348" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1349" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1350" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1351" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1352" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1353" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1354" s="1" t="s">
         <v>1413</v>
       </c>
     </row>
